--- a/Test/bin/Debug/test.xlsx
+++ b/Test/bin/Debug/test.xlsx
@@ -2,107 +2,115 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="所有人" sheetId="4" r:id="rId7"/>
-    <sheet name="男性" sheetId="5" r:id="rId8"/>
+    <sheet name="所有人" sheetId="4" r:id="rId4"/>
+    <sheet name="男性" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr calcId="122211" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
-  <si>
-    <t xml:space="preserve">Hello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">姓名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">性别</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">男</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">女</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>测试0</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>测试1</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>测试2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>测试3</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>测试4</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>测试5</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>测试6</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>测试7</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>测试8</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>测试9</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>你好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rrr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,9 +134,11 @@
       <sz val="14"/>
       <color indexed="9"/>
       <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,28 +146,13 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
+      <patternFill patternType="solid">
         <fgColor indexed="25"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="25"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="24"/>
       </patternFill>
     </fill>
     <fill>
@@ -176,37 +171,38 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -214,8 +210,8 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -507,32 +503,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>4.9870000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10">
+        <v>43831</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -540,12 +558,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -553,14 +571,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C12"/>
   <sheetViews>
-    <sheetView showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" ht="20" customHeight="1">
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -571,7 +589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -582,7 +600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -593,7 +611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -604,7 +622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -615,7 +633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -626,7 +644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -637,7 +655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -648,7 +666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -659,7 +677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -670,7 +688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
@@ -682,19 +700,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -705,7 +724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -716,7 +735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -727,7 +746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
@@ -738,7 +757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -749,7 +768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -761,6 +780,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>